--- a/Result/Result 2606.xlsx
+++ b/Result/Result 2606.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://confederacaosicredi-my.sharepoint.com/personal/gustavo_schroeder_sicredi_com_br/Documents/Documents/GitHub/Assignment-Data-Prospection/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavolazarottoschroeder/Documents/GitHub/Assignment-Data-Prospection/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3528DC9-9E95-4A74-8C87-E93CBB510679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B68BB9-90F6-534B-BE71-B224BF771415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{D2C57E69-E6FA-4ACE-A27A-BD08A5E49320}"/>
+    <workbookView xWindow="32000" yWindow="500" windowWidth="32000" windowHeight="34340" activeTab="1" xr2:uid="{D2C57E69-E6FA-4ACE-A27A-BD08A5E49320}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$K$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha2!$A$1:$B$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$B$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha3!$A$1:$C$297</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Planilha3!$B$262:$B$265</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Planilha3!$C$262:$C$265</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="163">
   <si>
     <t xml:space="preserve">  device</t>
   </si>
@@ -299,6 +303,234 @@
   </si>
   <si>
     <t>stress_level</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c513949f-8583-4ba4-8d9c-8eed67f5d21c</t>
+  </si>
+  <si>
+    <t>c513949f-8583-4ba4-8d9c-8eed67f5d21c</t>
+  </si>
+  <si>
+    <t>661f40c2-3f4a-412b-9d04-cf49dd4bfe93</t>
+  </si>
+  <si>
+    <t>80bf9553-a0c5-44f3-ae8e-e0f407dfe117</t>
+  </si>
+  <si>
+    <t>288dd230-46a6-4448-beea-a58291ca02d6</t>
+  </si>
+  <si>
+    <t>31ede59a-bb56-4697-b225-cabcc488be83</t>
+  </si>
+  <si>
+    <t>669801ca-e9d0-42c3-adae-364b7e191bf9</t>
+  </si>
+  <si>
+    <t>5dea9db1-a208-4cb2-84f1-c98c61e1fee5</t>
+  </si>
+  <si>
+    <t>2e825c6d-8cf9-4185-80ae-b08b9a173e07</t>
+  </si>
+  <si>
+    <t>1e068df6-5198-4921-befb-dee4e963cf79</t>
+  </si>
+  <si>
+    <t>d4c45b3d-6802-454c-ab53-fc4d79c7f4ce</t>
+  </si>
+  <si>
+    <t>cd7ffa05-7e99-4c2f-a155-ad5440c66892</t>
+  </si>
+  <si>
+    <t>8f85f240-20d3-424f-8552-d6eec3807377</t>
+  </si>
+  <si>
+    <t>2de1b6fd-f0e6-43e2-b63f-83458da3bf6e</t>
+  </si>
+  <si>
+    <t>f1949f09-55ec-41f5-a63c-b1937dd02fcb</t>
+  </si>
+  <si>
+    <t>9348008c-887f-4cc8-876e-f76e6ccc67c7</t>
+  </si>
+  <si>
+    <t>4fa1dfc3-72f0-488c-aa6d-6ca44dda7549</t>
+  </si>
+  <si>
+    <t>75c1cf2f-1302-4792-abaa-8aa878e7dbb8</t>
+  </si>
+  <si>
+    <t>9a6cb08d-4a85-4cd0-83fd-fd1fbc67e78c</t>
+  </si>
+  <si>
+    <t>6d09c48b-a4b6-4183-967a-bf4b8a32c6bc</t>
+  </si>
+  <si>
+    <t>6446baa6-a5a2-4382-8bd7-ae3bb8e7bbc5</t>
+  </si>
+  <si>
+    <t>df41e591-d2f3-409a-a94d-2d6250178b1c</t>
+  </si>
+  <si>
+    <t>1d94daf8-5b79-4e19-82cf-7541aa6861de</t>
+  </si>
+  <si>
+    <t>be5f759d-a2cb-4fa9-97fe-226cac8a9d94</t>
+  </si>
+  <si>
+    <t>a76154d0-9236-4459-88d9-e979627ad9f6</t>
+  </si>
+  <si>
+    <t>c1a5568a-5128-4edf-950b-ae4609e9cac4</t>
+  </si>
+  <si>
+    <t>82735cfe-a1cc-4c83-96e3-8533a8e97610</t>
+  </si>
+  <si>
+    <t>478dc69a-833a-42a9-84b3-16fff4b93bfb</t>
+  </si>
+  <si>
+    <t>447138cd-85c5-4f4f-87b0-b922da3079a2</t>
+  </si>
+  <si>
+    <t>aec46732-cdbd-45eb-ac4d-3cc3120376e0</t>
+  </si>
+  <si>
+    <t>4f0b2d1c-8fbb-4a66-a976-a85824e9bc79</t>
+  </si>
+  <si>
+    <t>ff61c02e-1ea0-4cef-87c3-774dfda1b11f</t>
+  </si>
+  <si>
+    <t>c041b75c-f53c-4c5b-ba69-77a07160d943</t>
+  </si>
+  <si>
+    <t>0c3ee513-2150-4e63-86df-1232670fe4b0</t>
+  </si>
+  <si>
+    <t>07d9799b-cfd0-4e8e-8a80-255b20609493</t>
+  </si>
+  <si>
+    <t>f4e73c02-c069-4e6d-a4ce-8239e8da16d6</t>
+  </si>
+  <si>
+    <t>2cea7c07-5050-4b2f-8c3b-0ba614a12cb9</t>
+  </si>
+  <si>
+    <t>00a1c922-0d7a-43b0-82d1-5491343f4b5f</t>
+  </si>
+  <si>
+    <t>6563415f-f5c7-4eca-afa7-2b9d0550aa28</t>
+  </si>
+  <si>
+    <t>d5650781-2998-4c7b-973e-d3b26096bcb7</t>
+  </si>
+  <si>
+    <t>63d89da2-26cf-46f0-a204-9bcaac81716d</t>
+  </si>
+  <si>
+    <t>55a4168c-5b87-4d6b-81a2-82b17666aaf1</t>
+  </si>
+  <si>
+    <t>6d22bf3c-cb78-4687-a509-541a99e05442</t>
+  </si>
+  <si>
+    <t>5d1b9d57-d2a6-49b4-90c9-49759d1e9ece</t>
+  </si>
+  <si>
+    <t>027c6245-b07f-4492-94e8-036454303f9c</t>
+  </si>
+  <si>
+    <t>f03e8535-61b8-402c-b9ba-b5a75bc90688</t>
+  </si>
+  <si>
+    <t>b10ccdbf-bebf-4a4d-aa34-60e68d09ed38</t>
+  </si>
+  <si>
+    <t>2b34eb06-94ab-46e5-a853-d88662a568aa</t>
+  </si>
+  <si>
+    <t>1f5d96d2-b9fd-4ca4-9185-1fa6c5969703</t>
+  </si>
+  <si>
+    <t>1977b545-a88f-4903-a7ae-2c434de4be49</t>
+  </si>
+  <si>
+    <t>dabe32a5-8e08-44d2-8617-81b0b46bf92e</t>
+  </si>
+  <si>
+    <t>bacb0599-f9cb-4956-8ef7-9a6af9635a68</t>
+  </si>
+  <si>
+    <t>e3dfba25-dc90-4991-afbd-318923b4f8c6</t>
+  </si>
+  <si>
+    <t>f5079815-6592-4584-83d1-f5d03632db33</t>
+  </si>
+  <si>
+    <t>83b55b30-b582-47fc-b06c-02e695ae097a</t>
+  </si>
+  <si>
+    <t>5bb5fed8-5013-417e-86a1-4df031e4a2ab</t>
+  </si>
+  <si>
+    <t>6e0a3746-33c8-40cd-8ba7-a1966343610f</t>
+  </si>
+  <si>
+    <t>f34c7fa4-7de7-4772-ad10-839b9d926e30</t>
+  </si>
+  <si>
+    <t>25fd565d-66d3-429f-a733-58bcd9254859</t>
+  </si>
+  <si>
+    <t>19249b9b-ee96-403c-922d-28096608959e</t>
+  </si>
+  <si>
+    <t>83147b17-0754-41b9-a03a-b5a490c60372</t>
+  </si>
+  <si>
+    <t>0dba5c0f-56b9-4b77-9f55-820863aabc18</t>
+  </si>
+  <si>
+    <t>b726971b-0950-4a03-8d04-d384063548cf</t>
+  </si>
+  <si>
+    <t>af77a485-f79f-4f27-8cc8-5b3c161884f2</t>
+  </si>
+  <si>
+    <t>9985c914-7fea-48d1-9296-215110bf6762</t>
+  </si>
+  <si>
+    <t>688f190a-3d4c-4af2-95f7-19ee6c4d639a</t>
+  </si>
+  <si>
+    <t>1edff768-5466-42b7-86d3-539556887683</t>
+  </si>
+  <si>
+    <t>d8ab31d7-3bf8-45db-bb3a-00f5c5a57efd</t>
+  </si>
+  <si>
+    <t>121fd048-9b82-4082-8f7a-b08a22ce3267</t>
+  </si>
+  <si>
+    <t>91723c67-617b-454c-96b7-ccaf9516c501</t>
+  </si>
+  <si>
+    <t>135b6097-4de6-40a9-b90b-40114a31b9c4</t>
+  </si>
+  <si>
+    <t>f6e8a175-1b05-486f-ba50-b03738e95da5</t>
+  </si>
+  <si>
+    <t>83123b91-10e9-4bd4-8214-42d04e10dc14</t>
+  </si>
+  <si>
+    <t>3d3b4725-e165-4c15-90ec-69942b685dd5</t>
+  </si>
+  <si>
+    <t>0098bea0-2e86-4f50-93ce-da1e784ee92b</t>
   </si>
 </sst>
 </file>
@@ -334,10 +566,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +589,370 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>1edff768-5466-42b7-86d3-539556887683</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$B$262:$B$265</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Digital Dependent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hard User</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Normal User</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Light User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$C$262:$C$265</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32625435056106999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25825228529257599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24882321842035801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16667014572599401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A59-A44D-996B-979AFCFEE66D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1092580063"/>
+        <c:axId val="1025782095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1092580063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1025782095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1025782095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092580063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -412,6 +1009,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AEC2-374F-9699-D8E462423E52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -448,6 +1050,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AEC2-374F-9699-D8E462423E52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -484,6 +1091,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AEC2-374F-9699-D8E462423E52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -520,6 +1132,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AEC2-374F-9699-D8E462423E52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -743,7 +1360,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1215,6 +2377,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416CE157-994F-F042-A5FC-AB24C8B0A1AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1551,26 +2754,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438CB4AF-D32A-4955-882E-A2F013ACB6AD}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1598,8 +2801,11 @@
       <c r="I1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1634,7 +2840,7 @@
         <v>0.32625435056106999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +2875,7 @@
         <v>0.30935963962185697</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +2910,7 @@
         <v>0.306293215298785</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1739,7 +2945,7 @@
         <v>0.28109560465010802</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1774,7 +2980,7 @@
         <v>0.27752529726951802</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1809,7 +3015,7 @@
         <v>0.27202654284337102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1844,7 +3050,7 @@
         <v>0.26888475281813801</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1879,7 +3085,7 @@
         <v>0.26706177516588497</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1914,7 +3120,7 @@
         <v>0.32318623751101999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +3155,7 @@
         <v>0.31024710295574798</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1984,7 +3190,7 @@
         <v>0.30915504015686301</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +3225,7 @@
         <v>0.30841094947537401</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2054,7 +3260,7 @@
         <v>0.29915893906389401</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2089,7 +3295,7 @@
         <v>0.29578302363225001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2124,7 +3330,7 @@
         <v>0.286657242498572</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2159,7 +3365,7 @@
         <v>0.28630192297323898</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2194,7 +3400,7 @@
         <v>0.28394334782356301</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2229,7 +3435,7 @@
         <v>0.28336010677302798</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2264,7 +3470,7 @@
         <v>0.26733259264599002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2299,7 +3505,7 @@
         <v>0.42568415647878899</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2334,7 +3540,7 @@
         <v>0.36613195595910097</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2369,7 +3575,7 @@
         <v>0.35864071601374797</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +3610,7 @@
         <v>0.354073338617515</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2439,7 +3645,7 @@
         <v>0.33782590562508202</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2474,7 +3680,7 @@
         <v>0.29986410261489199</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2509,7 +3715,7 @@
         <v>0.28685994899928402</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2544,7 +3750,7 @@
         <v>0.269205194520727</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2579,7 +3785,7 @@
         <v>0.43697480073769501</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2614,7 +3820,7 @@
         <v>0.38678678170023301</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2649,7 +3855,7 @@
         <v>0.37985500202801298</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2684,7 +3890,7 @@
         <v>0.37769917469701197</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2719,7 +3925,7 @@
         <v>0.36795571289419099</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2754,7 +3960,7 @@
         <v>0.36653051497263101</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2789,7 +3995,7 @@
         <v>0.36605388332036098</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2824,7 +4030,7 @@
         <v>0.365852406553552</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2859,7 +4065,7 @@
         <v>0.36469286753323998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2894,7 +4100,7 @@
         <v>0.36351020126794398</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2929,7 +4135,7 @@
         <v>0.36045363298345501</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2964,7 +4170,7 @@
         <v>0.35833224780268502</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2999,7 +4205,7 @@
         <v>0.35392447641880598</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -3034,7 +4240,7 @@
         <v>0.35224092453748801</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -3069,7 +4275,7 @@
         <v>0.34709450517838503</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -3104,7 +4310,7 @@
         <v>0.34687249481276999</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3139,7 +4345,7 @@
         <v>0.34587244220796398</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3174,7 +4380,7 @@
         <v>0.342630596176626</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -3209,7 +4415,7 @@
         <v>0.34157583042311301</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3244,7 +4450,7 @@
         <v>0.34084431180629499</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -3279,7 +4485,7 @@
         <v>0.34046736873344202</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -3314,7 +4520,7 @@
         <v>0.33935034316076401</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -3349,7 +4555,7 @@
         <v>0.33781414113026098</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -3384,7 +4590,7 @@
         <v>0.33185841177284198</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3419,7 +4625,7 @@
         <v>0.32410185196816499</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -3454,7 +4660,7 @@
         <v>0.32403263063305199</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -3489,7 +4695,7 @@
         <v>0.317756723322135</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -3524,7 +4730,7 @@
         <v>0.31682584579012502</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -3559,7 +4765,7 @@
         <v>0.31587866838141598</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -3594,7 +4800,7 @@
         <v>0.31481862004102801</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -3629,7 +4835,7 @@
         <v>0.31219099308370901</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -3664,7 +4870,7 @@
         <v>0.31165169131641102</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -3699,7 +4905,7 @@
         <v>0.30954054405382198</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -3734,7 +4940,7 @@
         <v>0.30360096368136702</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3769,7 +4975,7 @@
         <v>0.30321269032442599</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3804,7 +5010,7 @@
         <v>0.30318990195031997</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -3839,7 +5045,7 @@
         <v>0.29899437433446402</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -3874,7 +5080,7 @@
         <v>0.29892638452100401</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -3909,7 +5115,7 @@
         <v>0.29566988802636102</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -3944,7 +5150,7 @@
         <v>0.287657159416007</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -3979,7 +5185,7 @@
         <v>0.286756120186626</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4014,7 +5220,7 @@
         <v>0.28579977855143601</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -4049,7 +5255,7 @@
         <v>0.28157112697241898</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -4084,7 +5290,7 @@
         <v>0.27852168459712801</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -4119,7 +5325,7 @@
         <v>0.27840213554201299</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4154,7 +5360,7 @@
         <v>0.27209334539546898</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -4190,11 +5396,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K75" xr:uid="{293F8955-BF9F-4A6F-9B75-1002B486E49F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K75">
-      <sortCondition ref="J1:J75"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K75" xr:uid="{293F8955-BF9F-4A6F-9B75-1002B486E49F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -4204,6 +5406,3286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43010D7-F5B6-AF42-A6C0-0115DA179CED}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:C297"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P326" sqref="P325:P326"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0.31024710295574798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.29215178744939202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.20953732759969099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0.18806378199516699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.365852406553552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0.250875600756575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.240299099960846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.142972892729025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0.354073338617515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0.30449645419341298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.204788687708054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0.13664151948101599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.306293215298785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0.26306587225146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>0.250413417280833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>0.18022749516892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>0.33782590562508202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.33523336625544797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.19930724434462299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>0.12763348377484501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.30321269032442599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.24097978738800299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>0.232612318295156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>0.22319520399241199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>0.36351020126794398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0.30256501929154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>0.188076719300419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>0.14584806014009499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.36605388332036098</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0.27238371861841798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>0.22601798952666399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>0.13554440853455499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>0.34587244220796398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.27011447046906101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>0.194275942957091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>0.18973714436588199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>0.30935963962185697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>0.29568883593805501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>0.24248518947582101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>0.15246633496426501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>0.286657242498572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>0.271589840667881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>0.262126886323794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>0.17962603050975101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.31587866838141598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>0.295233003781324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0.210077067145885</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>0.17881126069137299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>0.30915504015686301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>0.26996622635360901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>0.26706020790823698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>0.153818525581289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>0.30318990195031997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>0.27183706607726998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>0.227188473590484</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>0.19778455838192399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>0.29566988802636102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0.266492340306829</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>0.25960283689453201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>0.178234934772276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>0.29986410261489199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>0.26567447355850698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>0.24770787914550199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>0.18675354468109701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>0.34046736873344202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>0.27274258734338802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>0.20715540468826099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>0.179634639234907</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>0.36613195595910097</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>0.35307517175789699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>0.174088648052627</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>0.106704224230373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>0.287657159416007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>0.247739266269736</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>0.24118536258378001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>0.22341821173047499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>0.43697480073769501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>0.25880590102997802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>0.19199287671574999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>0.112226421516575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>0.32403263063305199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0.25096765370053498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>0.22773347276328201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>0.197266242903129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>0.33935034316076401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>0.27781432510781501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>0.20593977568508801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>0.176895556046331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>0.28336010677302798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>0.28106124061346699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>0.24103804137863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>0.19454061123487301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>0.29578302363225001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>0.28063690006170899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>0.26355302493083899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>0.16002705137520001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>0.35864071601374797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>0.28872134178936198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>0.20663937643190899</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>0.14599856576497799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>0.38678678170023301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>0.35268050507795401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>0.14400072376779799</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>0.116531989454014</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>0.28109560465010802</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>0.27183680213922301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>0.25362679832737201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109">
+        <v>0.19344079488329499</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>0.33781414113026098</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>0.30704084628447598</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112">
+        <v>0.19816128310772199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>0.156983729477538</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114">
+        <v>0.31481862004102801</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115">
+        <v>0.24008850142324001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>0.22902973153929701</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117">
+        <v>0.216063146996433</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>0.33185841177284198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>0.32013949514522899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>0.177581487190867</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>0.17042060589106001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>0.317756723322135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>0.28145143213148199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>0.22019143997249799</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>0.18060040457388299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>0.27852168459712801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>120</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>0.270693395504985</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>0.24212943865249001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>0.20865548124539399</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>0.342630596176626</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>0.25662537446989298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>0.22920574456164799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>0.171538284791831</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>0.28630192297323898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135">
+        <v>0.28063136862073401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <v>0.246267340561722</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>0.18679936784430301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>123</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138">
+        <v>0.30360096368136702</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>0.24209325798182599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>0.23416621919271899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>0.22013955914408601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>0.26706177516588497</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>0.26066367844871602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144">
+        <v>0.25589609296161903</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>0.21637845342377801</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>0.35833224780268502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>0.27028443069988001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>0.20690757064881399</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149">
+        <v>0.16447575084862001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>0.31165169131641102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>0.30274104442911298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>126</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>0.20112711489629001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>0.18448014935818499</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>127</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>0.29899437433446402</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>127</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <v>0.24023503129849599</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>127</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>0.23424421049716199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>127</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>0.226526383869876</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>128</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>0.30841094947537401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>128</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>0.28779845177109198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>128</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>0.20296542317847199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>0.20082517557505999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>129</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <v>0.26888475281813801</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>129</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>0.254548265226266</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164">
+        <v>0.25363166441318702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>129</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>0.222935317542406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>130</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>0.26733259264599002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>130</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>0.26733250888666299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>130</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>0.25858115927528602</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>130</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169">
+        <v>0.206753739192059</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>131</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <v>0.29892638452100401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>131</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <v>0.28402099860919799</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>131</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>0.219482236061117</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>131</v>
+      </c>
+      <c r="B173" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173">
+        <v>0.197570380808679</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>132</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174">
+        <v>0.37769917469701197</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <v>0.26066562760779699</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>132</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176">
+        <v>0.210415491294353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>132</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <v>0.15121970640083501</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <v>0.31219099308370901</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>0.28950720834238802</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>133</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>0.213619278949117</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>133</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181">
+        <v>0.18468251962478399</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>134</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>0.32318623751101999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>134</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>0.31429528187110201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>134</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <v>0.18779342581257299</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>134</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185">
+        <v>0.17472505480530201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>135</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186">
+        <v>0.34084431180629499</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>135</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <v>0.262741967319717</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>135</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <v>0.23729999005910299</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>135</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>0.159113730814883</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <v>0.28685994899928402</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>136</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <v>0.27315360917386</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>0.22638072852339999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>136</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193">
+        <v>0.21360571330345399</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>137</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194">
+        <v>0.32410185196816499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>137</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>0.27367264620007897</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>137</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>0.20384616555566901</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>137</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>0.198379336276086</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>138</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <v>0.36045363298345501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>138</v>
+      </c>
+      <c r="B199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199">
+        <v>0.25991479988792598</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>138</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <v>0.229857159739045</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>138</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201">
+        <v>0.14977440738957201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>139</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202">
+        <v>0.37985500202801298</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>139</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>0.28513073827334301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>139</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <v>0.21497781866288099</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>139</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205">
+        <v>0.12003644103576</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>140</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206">
+        <v>0.286756120186626</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>140</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <v>0.26265004719934198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>140</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208">
+        <v>0.26186938516147301</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>140</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209">
+        <v>0.18872444745255701</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>141</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210">
+        <v>0.27840213554201299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>141</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211">
+        <v>0.263762141617776</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>141</v>
+      </c>
+      <c r="B212" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>0.25443440391404898</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>141</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213">
+        <v>0.20340131892616001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>142</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214">
+        <v>0.29915893906389401</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>142</v>
+      </c>
+      <c r="B215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215">
+        <v>0.28384864302739099</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>142</v>
+      </c>
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216">
+        <v>0.24217753715461299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>142</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>0.17481488075410001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>143</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218">
+        <v>0.30954054405382198</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>143</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219">
+        <v>0.27353621826046198</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>143</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220">
+        <v>0.241903851732169</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>143</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221">
+        <v>0.17501938595354499</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>144</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222">
+        <v>0.35224092453748801</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>144</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223">
+        <v>0.29121566725301001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>144</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224">
+        <v>0.17895955624128601</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>144</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225">
+        <v>0.177583851968214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>145</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226">
+        <v>0.269205194520727</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>145</v>
+      </c>
+      <c r="B227" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227">
+        <v>0.26887209809245</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228">
+        <v>0.25901283934002201</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>145</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229">
+        <v>0.202909868046799</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>146</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230">
+        <v>0.27202654284337102</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>146</v>
+      </c>
+      <c r="B231" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231">
+        <v>0.27074154249538701</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>146</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232">
+        <v>0.26862024769501203</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>146</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233">
+        <v>0.188611666966228</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>147</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234">
+        <v>0.27209334539546898</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>147</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235">
+        <v>0.25730725058824699</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>147</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236">
+        <v>0.250312698215582</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>147</v>
+      </c>
+      <c r="B237" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237">
+        <v>0.22028670580070001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>148</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>0.36653051497263101</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>148</v>
+      </c>
+      <c r="B239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239">
+        <v>0.26755067573211599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>148</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240">
+        <v>0.21983675595056201</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>148</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C241">
+        <v>0.14608205334468999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>149</v>
+      </c>
+      <c r="B242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242">
+        <v>0.36795571289419099</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>149</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243">
+        <v>0.26084667365523201</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>149</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244">
+        <v>0.22892778845207801</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>149</v>
+      </c>
+      <c r="B245" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245">
+        <v>0.142269824998497</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>150</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246">
+        <v>0.35392447641880598</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>150</v>
+      </c>
+      <c r="B247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247">
+        <v>0.24910259209007901</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>150</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248">
+        <v>0.217411217503096</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>150</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249">
+        <v>0.17956171398801801</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>151</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250">
+        <v>0.28579977855143601</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>151</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251">
+        <v>0.26472287521910598</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>151</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252">
+        <v>0.25898499170438499</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>151</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253">
+        <v>0.19049235452507099</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>152</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254">
+        <v>0.31682584579012502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>152</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255">
+        <v>0.29678805603507402</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>152</v>
+      </c>
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256">
+        <v>0.19500681269815701</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>152</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257">
+        <v>0.19137928547664201</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>153</v>
+      </c>
+      <c r="B258" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258">
+        <v>0.36469286753323998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>153</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259">
+        <v>0.30608965760875101</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>153</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>0.20915104904458101</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>153</v>
+      </c>
+      <c r="B261" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261">
+        <v>0.120066425813426</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>154</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="3">
+        <v>0.32625435056106999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>154</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0.25825228529257599</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>154</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" s="3">
+        <v>0.24882321842035801</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>154</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0.16667014572599401</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>155</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>0.27752529726951802</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>155</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267">
+        <v>0.26046468254844402</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>155</v>
+      </c>
+      <c r="B268" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268">
+        <v>0.25280528768910498</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>155</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269">
+        <v>0.20920473249293101</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>156</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270">
+        <v>0.34687249481276999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>156</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271">
+        <v>0.30842395917425802</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>156</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272">
+        <v>0.19461345551669501</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>156</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273">
+        <v>0.150090090496276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>157</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274">
+        <v>0.26333679013199601</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>157</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275">
+        <v>0.26266273582535199</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>157</v>
+      </c>
+      <c r="B276" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276">
+        <v>0.25080578317219299</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>157</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277">
+        <v>0.22319469087045801</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>158</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278">
+        <v>0.34157583042311301</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>158</v>
+      </c>
+      <c r="B279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279">
+        <v>0.26947287634198802</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>158</v>
+      </c>
+      <c r="B280" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280">
+        <v>0.19648338072739099</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>158</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281">
+        <v>0.192467912507505</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>159</v>
+      </c>
+      <c r="B282" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282">
+        <v>0.42568415647878899</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>159</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283">
+        <v>0.29666932612055702</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>159</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>0.16867399211421299</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>159</v>
+      </c>
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285">
+        <v>0.108972525286439</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>160</v>
+      </c>
+      <c r="B286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C286">
+        <v>0.28394334782356301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>160</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287">
+        <v>0.27645028009522599</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>160</v>
+      </c>
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288">
+        <v>0.25958436991661699</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>160</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289">
+        <v>0.18002200216459199</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>161</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290">
+        <v>0.34709450517838503</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>161</v>
+      </c>
+      <c r="B291" t="s">
+        <v>13</v>
+      </c>
+      <c r="C291">
+        <v>0.29143050535991699</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>161</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292">
+        <v>0.23128266357686</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>161</v>
+      </c>
+      <c r="B293" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293">
+        <v>0.13019232588483601</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>162</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294">
+        <v>0.28157112697241898</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>162</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295">
+        <v>0.26057596689914603</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>162</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296">
+        <v>0.25816030206693202</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>162</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297">
+        <v>0.19969260406150099</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C297" xr:uid="{0FADEDE1-A876-E348-B580-951D75F42B8C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1edff768-5466-42b7-86d3-539556887683"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7A5DED-53C5-4FD4-A229-4F2C03CDBB6F}">
   <dimension ref="A2:C5"/>
   <sheetViews>
@@ -4211,13 +8693,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4230,7 +8712,7 @@
         <v>0.14864864864864866</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4243,7 +8725,7 @@
         <v>0.63513513513513509</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4256,7 +8738,7 @@
         <v>0.10810810810810811</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
